--- a/logs/attendance_2025-06-01.xlsx
+++ b/logs/attendance_2025-06-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,10 +456,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
+      <c r="A2" t="n">
+        <v>123</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -468,6 +466,24 @@
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
+        <is>
+          <t>2025-06-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>2025-06-01</t>
         </is>
